--- a/InsuranceAutomation/src/main/java/resources/testData.xlsx
+++ b/InsuranceAutomation/src/main/java/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="2655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="insuranceData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Customer Type</t>
   </si>
@@ -40,9 +40,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>28/10/1996</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
@@ -53,6 +50,19 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>Under 23</t>
+  </si>
+  <si>
+    <t>Demerit Points Lost
+In Last 40 months</t>
+  </si>
+  <si>
+    <t>28/10/1992</t>
   </si>
   <si>
     <t>Pass</t>
@@ -92,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,11 +399,13 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
     <col min="4" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.5703125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -405,15 +420,24 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -422,13 +446,23 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InsuranceAutomation/src/main/java/resources/testData.xlsx
+++ b/InsuranceAutomation/src/main/java/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="2655"/>
   </bookViews>
   <sheets>
     <sheet name="insuranceData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Customer Type</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,8 +402,8 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
     <col min="4" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.5703125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -452,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0</v>

--- a/InsuranceAutomation/src/main/java/resources/testData.xlsx
+++ b/InsuranceAutomation/src/main/java/resources/testData.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
